--- a/Dashboards-test/RP2.xlsx
+++ b/Dashboards-test/RP2.xlsx
@@ -19,13 +19,13 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$3:$E$3</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$4:$E$24</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$4:$E$15</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$4:$E$4</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$22</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$13</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesGAmes_tpl" localSheetId="2">'Games Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersGames_tpl" localSheetId="2">'Games Per Day'!$A$2:$E$22</x:definedName>
+    <x:definedName name="PlayersGames_tpl" localSheetId="2">'Games Per Day'!$A$2:$E$13</x:definedName>
     <x:definedName name="PlayersGames_Games_tpl" localSheetId="2">'Games Per Day'!$E$2:$E$2</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>Highlight upperbound:</x:t>
   </x:si>
@@ -61,31 +61,7 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
-    <x:t>dabyharm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOREMON KDR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>llrobinhoodll</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cut3b0nk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F I R E 12345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nertrick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player12345656</x:t>
-  </x:si>
-  <x:si>
     <x:t>FathomGamingYT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tze han</x:t>
   </x:si>
   <x:si>
     <x:t>arjun the pro</x:t>
@@ -94,154 +70,40 @@
     <x:t>Dark devil</x:t>
   </x:si>
   <x:si>
+    <x:t>1 m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOREMON KDR</x:t>
+  </x:si>
+  <x:si>
     <x:t>nertick</x:t>
   </x:si>
   <x:si>
-    <x:t>1 m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DarkKnife</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brian0</x:t>
+    <x:t>Cut3b0nk</x:t>
   </x:si>
   <x:si>
     <x:t>Vertick</x:t>
   </x:si>
   <x:si>
-    <x:t>OhsorrydidI</x:t>
+    <x:t>nertrick</x:t>
   </x:si>
   <x:si>
-    <x:t>H O P E</x:t>
+    <x:t>F I R E 12345</x:t>
   </x:si>
   <x:si>
-    <x:t>nathaniels</x:t>
+    <x:t>Player12345656</x:t>
   </x:si>
   <x:si>
-    <x:t>Scorpio_x110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>flat</x:t>
+    <x:t>llrobinhoodll</x:t>
   </x:si>
   <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>12,9 (658/51)</x:t>
-  </x:si>
-  <x:si>
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
-    <x:t>8,3 (100/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,0 (195/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,9 (143/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,7 (68/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,2 (56/5)</x:t>
-  </x:si>
-  <x:si>
     <x:t>- (/)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,2 (96/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7 (802/215)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (12/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,5 (103/23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9 (405/105)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (41/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (13/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,1 (98/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,2 (50/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,4 (44/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (36/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (536/224)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (25/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (6/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (10/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,9 (47/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (202/75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (109/51)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (92/50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (45/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (58/30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (96/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (68/44)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (28/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (12/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (10/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0 (0/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (2/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (8/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,5 (3/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (5/3)</x:t>
   </x:si>
   <x:si>
     <x:t>Average Games</x:t>
@@ -712,7 +574,7 @@
   <x:dimension ref="A1:R14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="Z23" sqref="Z23"/>
+      <x:selection activeCell="M22" sqref="M22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +582,7 @@
     <x:col min="1" max="1" width="10.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="21.425781" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="11" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.750625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.270625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="26" width="10.425781" style="0" customWidth="1"/>
     <x:col min="27" max="16384" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
@@ -744,46 +606,46 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E3" s="16">
-        <x:v>44557</x:v>
+        <x:v>44559</x:v>
       </x:c>
       <x:c r="F3" s="16">
-        <x:v>44558</x:v>
+        <x:v>44560</x:v>
       </x:c>
       <x:c r="G3" s="16">
-        <x:v>44559</x:v>
+        <x:v>44561</x:v>
       </x:c>
       <x:c r="H3" s="16">
-        <x:v>44560</x:v>
+        <x:v>44562</x:v>
       </x:c>
       <x:c r="I3" s="16">
-        <x:v>44561</x:v>
+        <x:v>44563</x:v>
       </x:c>
       <x:c r="J3" s="16">
-        <x:v>44562</x:v>
+        <x:v>44564</x:v>
       </x:c>
       <x:c r="K3" s="16">
-        <x:v>44563</x:v>
+        <x:v>44565</x:v>
       </x:c>
       <x:c r="L3" s="16">
-        <x:v>44564</x:v>
+        <x:v>44566</x:v>
       </x:c>
       <x:c r="M3" s="16">
-        <x:v>44565</x:v>
+        <x:v>44567</x:v>
       </x:c>
       <x:c r="N3" s="16">
-        <x:v>44566</x:v>
+        <x:v>44568</x:v>
       </x:c>
       <x:c r="O3" s="16">
-        <x:v>44567</x:v>
+        <x:v>44569</x:v>
       </x:c>
       <x:c r="P3" s="16">
-        <x:v>44568</x:v>
+        <x:v>44570</x:v>
       </x:c>
       <x:c r="Q3" s="16">
-        <x:v>44569</x:v>
+        <x:v>44571</x:v>
       </x:c>
       <x:c r="R3" s="16">
-        <x:v>44570</x:v>
+        <x:v>44572</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,87 +653,51 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="18" t="n">
-        <x:v>2670.26770370369</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="18" t="n">
-        <x:v>724118.668416665</x:v>
-      </x:c>
-      <x:c r="E4" s="19" t="n">
-        <x:v>1365.07112500002</x:v>
-      </x:c>
-      <x:c r="F4" s="19" t="n">
-        <x:v>314.255000000005</x:v>
-      </x:c>
-      <x:c r="G4" s="19" t="n">
-        <x:v>338.885333333397</x:v>
-      </x:c>
-      <x:c r="H4" s="19" t="n">
-        <x:v>3498.75064583332</x:v>
-      </x:c>
-      <x:c r="I4" s="19" t="n">
-        <x:v>8806.05208333337</x:v>
-      </x:c>
-      <x:c r="J4" s="19" t="n">
-        <x:v>4914.62083333323</x:v>
-      </x:c>
+        <x:v>32659.6994166667</x:v>
+      </x:c>
+      <x:c r="E4" s="19" t="s"/>
+      <x:c r="F4" s="19" t="s"/>
+      <x:c r="G4" s="19" t="s"/>
+      <x:c r="H4" s="19" t="s"/>
+      <x:c r="I4" s="19" t="s"/>
+      <x:c r="J4" s="19" t="s"/>
       <x:c r="K4" s="19" t="s"/>
       <x:c r="L4" s="19" t="s"/>
-      <x:c r="M4" s="19" t="n">
+      <x:c r="M4" s="19" t="s"/>
+      <x:c r="N4" s="19" t="s"/>
+      <x:c r="O4" s="19" t="s"/>
+      <x:c r="P4" s="19" t="s"/>
+      <x:c r="Q4" s="19" t="s"/>
+      <x:c r="R4" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="N4" s="19" t="n">
-        <x:v>2646.5083333333</x:v>
-      </x:c>
-      <x:c r="O4" s="19" t="s"/>
-      <x:c r="P4" s="19" t="n">
-        <x:v>2148.26597916661</x:v>
-      </x:c>
-      <x:c r="Q4" s="19" t="s"/>
-      <x:c r="R4" s="19" t="s"/>
     </x:row>
     <x:row r="5" spans="1:146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="B5" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="18" t="n">
-        <x:v>2508.5428939394</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D5" s="18" t="n">
-        <x:v>53938.23125</x:v>
-      </x:c>
-      <x:c r="E5" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="19" t="n">
-        <x:v>3758.40358333333</x:v>
-      </x:c>
-      <x:c r="G5" s="19" t="n">
-        <x:v>7963.83275000001</x:v>
-      </x:c>
-      <x:c r="H5" s="19" t="n">
-        <x:v>6208.94241666667</x:v>
-      </x:c>
-      <x:c r="I5" s="19" t="n">
-        <x:v>2864.57416666668</x:v>
-      </x:c>
-      <x:c r="J5" s="19" t="n">
-        <x:v>1991.82733333333</x:v>
-      </x:c>
+        <x:v>38404.6406041666</x:v>
+      </x:c>
+      <x:c r="E5" s="19" t="s"/>
+      <x:c r="F5" s="19" t="s"/>
+      <x:c r="G5" s="19" t="s"/>
+      <x:c r="H5" s="19" t="s"/>
+      <x:c r="I5" s="19" t="s"/>
+      <x:c r="J5" s="19" t="s"/>
       <x:c r="K5" s="19" t="s"/>
       <x:c r="L5" s="19" t="s"/>
-      <x:c r="M5" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N5" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M5" s="19" t="s"/>
+      <x:c r="N5" s="19" t="s"/>
       <x:c r="O5" s="19" t="s"/>
-      <x:c r="P5" s="19" t="n">
-        <x:v>4806.39158333333</x:v>
-      </x:c>
-      <x:c r="Q5" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P5" s="19" t="s"/>
+      <x:c r="Q5" s="19" t="s"/>
       <x:c r="R5" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -881,46 +707,26 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="18" t="n">
-        <x:v>2383.4755795454</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D6" s="18" t="n">
-        <x:v>882250.818624998</x:v>
-      </x:c>
-      <x:c r="E6" s="19" t="n">
-        <x:v>300.579166666605</x:v>
-      </x:c>
-      <x:c r="F6" s="19" t="n">
-        <x:v>3160.65883333329</x:v>
-      </x:c>
-      <x:c r="G6" s="19" t="n">
-        <x:v>13294.549208333</x:v>
-      </x:c>
-      <x:c r="H6" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="19" t="n">
-        <x:v>1260.60520833335</x:v>
-      </x:c>
-      <x:c r="J6" s="19" t="n">
-        <x:v>364.431333333254</x:v>
-      </x:c>
+        <x:v>66067.2954374993</x:v>
+      </x:c>
+      <x:c r="E6" s="19" t="s"/>
+      <x:c r="F6" s="19" t="s"/>
+      <x:c r="G6" s="19" t="s"/>
+      <x:c r="H6" s="19" t="s"/>
+      <x:c r="I6" s="19" t="s"/>
+      <x:c r="J6" s="19" t="s"/>
       <x:c r="K6" s="19" t="s"/>
       <x:c r="L6" s="19" t="s"/>
-      <x:c r="M6" s="19" t="n">
+      <x:c r="M6" s="19" t="s"/>
+      <x:c r="N6" s="19" t="s"/>
+      <x:c r="O6" s="19" t="s"/>
+      <x:c r="P6" s="19" t="s"/>
+      <x:c r="Q6" s="19" t="s"/>
+      <x:c r="R6" s="19" t="n">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="N6" s="19" t="n">
-        <x:v>3009.23729166668</x:v>
-      </x:c>
-      <x:c r="O6" s="19" t="s"/>
-      <x:c r="P6" s="19" t="n">
-        <x:v>1710.68795833318</x:v>
-      </x:c>
-      <x:c r="Q6" s="19" t="n">
-        <x:v>1652.78104166663</x:v>
-      </x:c>
-      <x:c r="R6" s="19" t="n">
-        <x:v>1464.70133333339</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146" customFormat="1" ht="15" customHeight="1">
@@ -928,44 +734,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="18" t="n">
-        <x:v>480.14110984849</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D7" s="18" t="n">
-        <x:v>527385.038354166</x:v>
-      </x:c>
-      <x:c r="E7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="19" t="n">
-        <x:v>3756.5487083334</x:v>
-      </x:c>
+        <x:v>42408.0292291667</x:v>
+      </x:c>
+      <x:c r="E7" s="19" t="s"/>
+      <x:c r="F7" s="19" t="s"/>
+      <x:c r="G7" s="19" t="s"/>
+      <x:c r="H7" s="19" t="s"/>
+      <x:c r="I7" s="19" t="s"/>
+      <x:c r="J7" s="19" t="s"/>
       <x:c r="K7" s="19" t="s"/>
       <x:c r="L7" s="19" t="s"/>
-      <x:c r="M7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M7" s="19" t="s"/>
+      <x:c r="N7" s="19" t="s"/>
       <x:c r="O7" s="19" t="s"/>
-      <x:c r="P7" s="19" t="n">
-        <x:v>1525.00349999999</x:v>
-      </x:c>
-      <x:c r="Q7" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P7" s="19" t="s"/>
+      <x:c r="Q7" s="19" t="s"/>
       <x:c r="R7" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -975,44 +761,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="18" t="n">
-        <x:v>177.56134848485</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="18" t="n">
-        <x:v>405984.04675</x:v>
-      </x:c>
-      <x:c r="E8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="19" t="n">
-        <x:v>1953.17483333335</x:v>
-      </x:c>
-      <x:c r="I8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>57030.1458333334</x:v>
+      </x:c>
+      <x:c r="E8" s="19" t="s"/>
+      <x:c r="F8" s="19" t="s"/>
+      <x:c r="G8" s="19" t="s"/>
+      <x:c r="H8" s="19" t="s"/>
+      <x:c r="I8" s="19" t="s"/>
+      <x:c r="J8" s="19" t="s"/>
       <x:c r="K8" s="19" t="s"/>
       <x:c r="L8" s="19" t="s"/>
-      <x:c r="M8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M8" s="19" t="s"/>
+      <x:c r="N8" s="19" t="s"/>
       <x:c r="O8" s="19" t="s"/>
-      <x:c r="P8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q8" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P8" s="19" t="s"/>
+      <x:c r="Q8" s="19" t="s"/>
       <x:c r="R8" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1022,44 +788,24 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="18" t="n">
-        <x:v>41.7766515151545</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D9" s="18" t="n">
-        <x:v>412679.018166665</x:v>
-      </x:c>
-      <x:c r="E9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J9" s="19" t="n">
-        <x:v>362.339833333332</x:v>
-      </x:c>
+        <x:v>120606.663270833</x:v>
+      </x:c>
+      <x:c r="E9" s="19" t="s"/>
+      <x:c r="F9" s="19" t="s"/>
+      <x:c r="G9" s="19" t="s"/>
+      <x:c r="H9" s="19" t="s"/>
+      <x:c r="I9" s="19" t="s"/>
+      <x:c r="J9" s="19" t="s"/>
       <x:c r="K9" s="19" t="s"/>
       <x:c r="L9" s="19" t="s"/>
-      <x:c r="M9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N9" s="19" t="n">
-        <x:v>97.2033333333675</x:v>
-      </x:c>
+      <x:c r="M9" s="19" t="s"/>
+      <x:c r="N9" s="19" t="s"/>
       <x:c r="O9" s="19" t="s"/>
-      <x:c r="P9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q9" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P9" s="19" t="s"/>
+      <x:c r="Q9" s="19" t="s"/>
       <x:c r="R9" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1069,44 +815,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="18" t="n">
-        <x:v>18.5047499999954</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="18" t="n">
-        <x:v>439210.687270833</x:v>
-      </x:c>
-      <x:c r="E10" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G10" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I10" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J10" s="19" t="n">
-        <x:v>160.074416666641</x:v>
-      </x:c>
+        <x:v>527385.038354166</x:v>
+      </x:c>
+      <x:c r="E10" s="19" t="s"/>
+      <x:c r="F10" s="19" t="s"/>
+      <x:c r="G10" s="19" t="s"/>
+      <x:c r="H10" s="19" t="s"/>
+      <x:c r="I10" s="19" t="s"/>
+      <x:c r="J10" s="19" t="s"/>
       <x:c r="K10" s="19" t="s"/>
       <x:c r="L10" s="19" t="s"/>
-      <x:c r="M10" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N10" s="19" t="n">
-        <x:v>4.89116666663904</x:v>
-      </x:c>
+      <x:c r="M10" s="19" t="s"/>
+      <x:c r="N10" s="19" t="s"/>
       <x:c r="O10" s="19" t="s"/>
-      <x:c r="P10" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q10" s="19" t="n">
-        <x:v>38.5866666666698</x:v>
-      </x:c>
+      <x:c r="P10" s="19" t="s"/>
+      <x:c r="Q10" s="19" t="s"/>
       <x:c r="R10" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1119,41 +845,21 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="18" t="n">
-        <x:v>32659.6994166667</x:v>
-      </x:c>
-      <x:c r="E11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>720440.45533333</x:v>
+      </x:c>
+      <x:c r="E11" s="19" t="s"/>
+      <x:c r="F11" s="19" t="s"/>
+      <x:c r="G11" s="19" t="s"/>
+      <x:c r="H11" s="19" t="s"/>
+      <x:c r="I11" s="19" t="s"/>
+      <x:c r="J11" s="19" t="s"/>
       <x:c r="K11" s="19" t="s"/>
       <x:c r="L11" s="19" t="s"/>
-      <x:c r="M11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M11" s="19" t="s"/>
+      <x:c r="N11" s="19" t="s"/>
       <x:c r="O11" s="19" t="s"/>
-      <x:c r="P11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q11" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P11" s="19" t="s"/>
+      <x:c r="Q11" s="19" t="s"/>
       <x:c r="R11" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1166,7 +872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D12" s="18" t="n">
-        <x:v>108418.467</x:v>
+        <x:v>412679.018166665</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s"/>
       <x:c r="F12" s="19" t="s"/>
@@ -1181,7 +887,9 @@
       <x:c r="O12" s="19" t="s"/>
       <x:c r="P12" s="19" t="s"/>
       <x:c r="Q12" s="19" t="s"/>
-      <x:c r="R12" s="19" t="s"/>
+      <x:c r="R12" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="B13" s="17" t="s">
@@ -1191,41 +899,21 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D13" s="18" t="n">
-        <x:v>38404.6406041666</x:v>
-      </x:c>
-      <x:c r="E13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>405984.04675</x:v>
+      </x:c>
+      <x:c r="E13" s="19" t="s"/>
+      <x:c r="F13" s="19" t="s"/>
+      <x:c r="G13" s="19" t="s"/>
+      <x:c r="H13" s="19" t="s"/>
+      <x:c r="I13" s="19" t="s"/>
+      <x:c r="J13" s="19" t="s"/>
       <x:c r="K13" s="19" t="s"/>
       <x:c r="L13" s="19" t="s"/>
-      <x:c r="M13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M13" s="19" t="s"/>
+      <x:c r="N13" s="19" t="s"/>
       <x:c r="O13" s="19" t="s"/>
-      <x:c r="P13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q13" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P13" s="19" t="s"/>
+      <x:c r="Q13" s="19" t="s"/>
       <x:c r="R13" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1239,41 +927,21 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D14" s="18" t="n">
-        <x:v>66067.2954374993</x:v>
-      </x:c>
-      <x:c r="E14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>439210.687270833</x:v>
+      </x:c>
+      <x:c r="E14" s="19" t="s"/>
+      <x:c r="F14" s="19" t="s"/>
+      <x:c r="G14" s="19" t="s"/>
+      <x:c r="H14" s="19" t="s"/>
+      <x:c r="I14" s="19" t="s"/>
+      <x:c r="J14" s="19" t="s"/>
       <x:c r="K14" s="19" t="s"/>
       <x:c r="L14" s="19" t="s"/>
-      <x:c r="M14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M14" s="19" t="s"/>
+      <x:c r="N14" s="19" t="s"/>
       <x:c r="O14" s="19" t="s"/>
-      <x:c r="P14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q14" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P14" s="19" t="s"/>
+      <x:c r="Q14" s="19" t="s"/>
       <x:c r="R14" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1290,315 +958,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="18" t="n">
-        <x:v>120606.663270833</x:v>
-      </x:c>
-      <x:c r="E15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>886549.767208331</x:v>
+      </x:c>
+      <x:c r="E15" s="19" t="s"/>
+      <x:c r="F15" s="19" t="s"/>
+      <x:c r="G15" s="19" t="s"/>
+      <x:c r="H15" s="19" t="s"/>
+      <x:c r="I15" s="19" t="s"/>
+      <x:c r="J15" s="19" t="s"/>
       <x:c r="K15" s="19" t="s"/>
       <x:c r="L15" s="19" t="s"/>
-      <x:c r="M15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M15" s="19" t="s"/>
+      <x:c r="N15" s="19" t="s"/>
       <x:c r="O15" s="19" t="s"/>
-      <x:c r="P15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q15" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P15" s="19" t="s"/>
+      <x:c r="Q15" s="19" t="s"/>
       <x:c r="R15" s="19" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B16" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C16" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D16" s="18" t="n">
-        <x:v>42408.0292291667</x:v>
-      </x:c>
-      <x:c r="E16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K16" s="19" t="s"/>
-      <x:c r="L16" s="19" t="s"/>
-      <x:c r="M16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O16" s="19" t="s"/>
-      <x:c r="P16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R16" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B17" s="17" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C17" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D17" s="18" t="n">
-        <x:v>84482.116520833</x:v>
-      </x:c>
-      <x:c r="E17" s="19" t="s"/>
-      <x:c r="F17" s="19" t="s"/>
-      <x:c r="G17" s="19" t="s"/>
-      <x:c r="H17" s="19" t="s"/>
-      <x:c r="I17" s="19" t="s"/>
-      <x:c r="J17" s="19" t="s"/>
-      <x:c r="K17" s="19" t="s"/>
-      <x:c r="L17" s="19" t="s"/>
-      <x:c r="M17" s="19" t="s"/>
-      <x:c r="N17" s="19" t="s"/>
-      <x:c r="O17" s="19" t="s"/>
-      <x:c r="P17" s="19" t="s"/>
-      <x:c r="Q17" s="19" t="s"/>
-      <x:c r="R17" s="19" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B18" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C18" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D18" s="18" t="n">
-        <x:v>210382.495770832</x:v>
-      </x:c>
-      <x:c r="E18" s="19" t="s"/>
-      <x:c r="F18" s="19" t="s"/>
-      <x:c r="G18" s="19" t="s"/>
-      <x:c r="H18" s="19" t="s"/>
-      <x:c r="I18" s="19" t="s"/>
-      <x:c r="J18" s="19" t="s"/>
-      <x:c r="K18" s="19" t="s"/>
-      <x:c r="L18" s="19" t="s"/>
-      <x:c r="M18" s="19" t="s"/>
-      <x:c r="N18" s="19" t="s"/>
-      <x:c r="O18" s="19" t="s"/>
-      <x:c r="P18" s="19" t="s"/>
-      <x:c r="Q18" s="19" t="s"/>
-      <x:c r="R18" s="19" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B19" s="17" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C19" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D19" s="18" t="n">
-        <x:v>720440.45533333</x:v>
-      </x:c>
-      <x:c r="E19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K19" s="19" t="s"/>
-      <x:c r="L19" s="19" t="s"/>
-      <x:c r="M19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O19" s="19" t="s"/>
-      <x:c r="P19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R19" s="19" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B20" s="17" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C20" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D20" s="18" t="n">
-        <x:v>943754.858770836</x:v>
-      </x:c>
-      <x:c r="E20" s="19" t="s"/>
-      <x:c r="F20" s="19" t="s"/>
-      <x:c r="G20" s="19" t="s"/>
-      <x:c r="H20" s="19" t="s"/>
-      <x:c r="I20" s="19" t="s"/>
-      <x:c r="J20" s="19" t="s"/>
-      <x:c r="K20" s="19" t="s"/>
-      <x:c r="L20" s="19" t="s"/>
-      <x:c r="M20" s="19" t="s"/>
-      <x:c r="N20" s="19" t="s"/>
-      <x:c r="O20" s="19" t="s"/>
-      <x:c r="P20" s="19" t="s"/>
-      <x:c r="Q20" s="19" t="s"/>
-      <x:c r="R20" s="19" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B21" s="17" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C21" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D21" s="18" t="n">
-        <x:v>281657.321583334</x:v>
-      </x:c>
-      <x:c r="E21" s="19" t="s"/>
-      <x:c r="F21" s="19" t="s"/>
-      <x:c r="G21" s="19" t="s"/>
-      <x:c r="H21" s="19" t="s"/>
-      <x:c r="I21" s="19" t="s"/>
-      <x:c r="J21" s="19" t="s"/>
-      <x:c r="K21" s="19" t="s"/>
-      <x:c r="L21" s="19" t="s"/>
-      <x:c r="M21" s="19" t="s"/>
-      <x:c r="N21" s="19" t="s"/>
-      <x:c r="O21" s="19" t="s"/>
-      <x:c r="P21" s="19" t="s"/>
-      <x:c r="Q21" s="19" t="s"/>
-      <x:c r="R21" s="19" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B22" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C22" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D22" s="18" t="n">
-        <x:v>17713.7213541666</x:v>
-      </x:c>
-      <x:c r="E22" s="19" t="s"/>
-      <x:c r="F22" s="19" t="s"/>
-      <x:c r="G22" s="19" t="s"/>
-      <x:c r="H22" s="19" t="s"/>
-      <x:c r="I22" s="19" t="s"/>
-      <x:c r="J22" s="19" t="s"/>
-      <x:c r="K22" s="19" t="s"/>
-      <x:c r="L22" s="19" t="s"/>
-      <x:c r="M22" s="19" t="s"/>
-      <x:c r="N22" s="19" t="s"/>
-      <x:c r="O22" s="19" t="s"/>
-      <x:c r="P22" s="19" t="s"/>
-      <x:c r="Q22" s="19" t="s"/>
-      <x:c r="R22" s="19" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B23" s="17" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C23" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D23" s="18" t="n">
-        <x:v>104974.219916666</x:v>
-      </x:c>
-      <x:c r="E23" s="19" t="s"/>
-      <x:c r="F23" s="19" t="s"/>
-      <x:c r="G23" s="19" t="s"/>
-      <x:c r="H23" s="19" t="s"/>
-      <x:c r="I23" s="19" t="s"/>
-      <x:c r="J23" s="19" t="s"/>
-      <x:c r="K23" s="19" t="s"/>
-      <x:c r="L23" s="19" t="s"/>
-      <x:c r="M23" s="19" t="s"/>
-      <x:c r="N23" s="19" t="s"/>
-      <x:c r="O23" s="19" t="s"/>
-      <x:c r="P23" s="19" t="s"/>
-      <x:c r="Q23" s="19" t="s"/>
-      <x:c r="R23" s="19" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:146" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B24" s="17" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C24" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D24" s="18" t="n">
-        <x:v>323237.493562498</x:v>
-      </x:c>
-      <x:c r="E24" s="19" t="s"/>
-      <x:c r="F24" s="19" t="s"/>
-      <x:c r="G24" s="19" t="s"/>
-      <x:c r="H24" s="19" t="s"/>
-      <x:c r="I24" s="19" t="s"/>
-      <x:c r="J24" s="19" t="s"/>
-      <x:c r="K24" s="19" t="s"/>
-      <x:c r="L24" s="19" t="s"/>
-      <x:c r="M24" s="19" t="s"/>
-      <x:c r="N24" s="19" t="s"/>
-      <x:c r="O24" s="19" t="s"/>
-      <x:c r="P24" s="19" t="s"/>
-      <x:c r="Q24" s="19" t="s"/>
-      <x:c r="R24" s="19" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:146" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="16" spans="1:146" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:dataConsolidate/>
   <x:conditionalFormatting sqref="E4:E4">
@@ -4285,2022 +3664,6 @@
       <x:formula>0</x:formula>
     </x:cfRule>
     <x:cfRule type="cellIs" dxfId="1" priority="672" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E16:E16">
-    <x:cfRule type="cellIs" dxfId="0" priority="673" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="674" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="675" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="676" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F16:F16">
-    <x:cfRule type="cellIs" dxfId="0" priority="677" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="678" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="679" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="680" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G16:G16">
-    <x:cfRule type="cellIs" dxfId="0" priority="681" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="682" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="683" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="684" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H16:H16">
-    <x:cfRule type="cellIs" dxfId="0" priority="685" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="686" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="687" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="688" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I16:I16">
-    <x:cfRule type="cellIs" dxfId="0" priority="689" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="690" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="691" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="692" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J16:J16">
-    <x:cfRule type="cellIs" dxfId="0" priority="693" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="694" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="695" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="696" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K16:K16">
-    <x:cfRule type="cellIs" dxfId="0" priority="697" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="698" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="699" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="700" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L16:L16">
-    <x:cfRule type="cellIs" dxfId="0" priority="701" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="702" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="703" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="704" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M16:M16">
-    <x:cfRule type="cellIs" dxfId="0" priority="705" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="706" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="707" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="708" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N16:N16">
-    <x:cfRule type="cellIs" dxfId="0" priority="709" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="710" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="711" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="712" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O16:O16">
-    <x:cfRule type="cellIs" dxfId="0" priority="713" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="714" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="715" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="716" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P16:P16">
-    <x:cfRule type="cellIs" dxfId="0" priority="717" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="718" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="719" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="720" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q16:Q16">
-    <x:cfRule type="cellIs" dxfId="0" priority="721" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="722" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="723" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="724" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R16:R16">
-    <x:cfRule type="cellIs" dxfId="0" priority="725" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="726" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="727" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="728" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E17:E17">
-    <x:cfRule type="cellIs" dxfId="0" priority="729" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="730" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="731" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="732" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F17:F17">
-    <x:cfRule type="cellIs" dxfId="0" priority="733" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="734" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="735" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="736" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G17:G17">
-    <x:cfRule type="cellIs" dxfId="0" priority="737" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="738" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="739" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="740" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H17:H17">
-    <x:cfRule type="cellIs" dxfId="0" priority="741" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="742" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="743" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="744" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I17:I17">
-    <x:cfRule type="cellIs" dxfId="0" priority="745" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="746" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="747" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="748" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J17:J17">
-    <x:cfRule type="cellIs" dxfId="0" priority="749" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="750" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="751" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="752" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K17:K17">
-    <x:cfRule type="cellIs" dxfId="0" priority="753" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="754" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="755" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="756" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L17:L17">
-    <x:cfRule type="cellIs" dxfId="0" priority="757" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="758" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="759" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="760" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M17:M17">
-    <x:cfRule type="cellIs" dxfId="0" priority="761" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="762" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="763" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="764" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N17:N17">
-    <x:cfRule type="cellIs" dxfId="0" priority="765" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="766" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="767" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="768" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O17:O17">
-    <x:cfRule type="cellIs" dxfId="0" priority="769" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="770" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="771" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="772" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P17:P17">
-    <x:cfRule type="cellIs" dxfId="0" priority="773" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="774" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="775" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="776" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q17:Q17">
-    <x:cfRule type="cellIs" dxfId="0" priority="777" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="778" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="779" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="780" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R17:R17">
-    <x:cfRule type="cellIs" dxfId="0" priority="781" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="782" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="783" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="784" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E18:E18">
-    <x:cfRule type="cellIs" dxfId="0" priority="785" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="786" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="787" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="788" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F18:F18">
-    <x:cfRule type="cellIs" dxfId="0" priority="789" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="790" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="791" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="792" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G18:G18">
-    <x:cfRule type="cellIs" dxfId="0" priority="793" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="794" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="795" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="796" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H18:H18">
-    <x:cfRule type="cellIs" dxfId="0" priority="797" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="798" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="799" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="800" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I18:I18">
-    <x:cfRule type="cellIs" dxfId="0" priority="801" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="802" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="803" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="804" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J18:J18">
-    <x:cfRule type="cellIs" dxfId="0" priority="805" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="806" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="807" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="808" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K18:K18">
-    <x:cfRule type="cellIs" dxfId="0" priority="809" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="810" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="811" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="812" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L18:L18">
-    <x:cfRule type="cellIs" dxfId="0" priority="813" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="814" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="815" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="816" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M18:M18">
-    <x:cfRule type="cellIs" dxfId="0" priority="817" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="818" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="819" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="820" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N18:N18">
-    <x:cfRule type="cellIs" dxfId="0" priority="821" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="822" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="823" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="824" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O18:O18">
-    <x:cfRule type="cellIs" dxfId="0" priority="825" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="826" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="827" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="828" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P18:P18">
-    <x:cfRule type="cellIs" dxfId="0" priority="829" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="830" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="831" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="832" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q18:Q18">
-    <x:cfRule type="cellIs" dxfId="0" priority="833" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="834" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="835" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="836" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R18:R18">
-    <x:cfRule type="cellIs" dxfId="0" priority="837" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="838" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="839" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="840" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E19:E19">
-    <x:cfRule type="cellIs" dxfId="0" priority="841" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="842" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="843" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="844" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F19:F19">
-    <x:cfRule type="cellIs" dxfId="0" priority="845" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="846" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="847" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="848" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G19:G19">
-    <x:cfRule type="cellIs" dxfId="0" priority="849" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="850" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="851" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="852" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H19:H19">
-    <x:cfRule type="cellIs" dxfId="0" priority="853" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="854" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="855" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="856" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I19:I19">
-    <x:cfRule type="cellIs" dxfId="0" priority="857" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="858" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="859" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="860" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J19:J19">
-    <x:cfRule type="cellIs" dxfId="0" priority="861" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="862" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="863" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="864" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K19:K19">
-    <x:cfRule type="cellIs" dxfId="0" priority="865" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="866" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="867" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="868" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L19:L19">
-    <x:cfRule type="cellIs" dxfId="0" priority="869" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="870" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="871" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="872" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M19:M19">
-    <x:cfRule type="cellIs" dxfId="0" priority="873" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="874" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="875" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="876" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N19:N19">
-    <x:cfRule type="cellIs" dxfId="0" priority="877" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="878" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="879" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="880" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O19:O19">
-    <x:cfRule type="cellIs" dxfId="0" priority="881" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="882" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="883" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="884" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P19:P19">
-    <x:cfRule type="cellIs" dxfId="0" priority="885" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="886" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="887" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="888" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q19:Q19">
-    <x:cfRule type="cellIs" dxfId="0" priority="889" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="890" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="891" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="892" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R19:R19">
-    <x:cfRule type="cellIs" dxfId="0" priority="893" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="894" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="895" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="896" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E20:E20">
-    <x:cfRule type="cellIs" dxfId="0" priority="897" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="898" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="899" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="900" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F20:F20">
-    <x:cfRule type="cellIs" dxfId="0" priority="901" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="902" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="903" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="904" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G20:G20">
-    <x:cfRule type="cellIs" dxfId="0" priority="905" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="906" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="907" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="908" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H20:H20">
-    <x:cfRule type="cellIs" dxfId="0" priority="909" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="910" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="911" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="912" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I20:I20">
-    <x:cfRule type="cellIs" dxfId="0" priority="913" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="914" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="915" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="916" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J20:J20">
-    <x:cfRule type="cellIs" dxfId="0" priority="917" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="918" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="919" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="920" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K20:K20">
-    <x:cfRule type="cellIs" dxfId="0" priority="921" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="922" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="923" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="924" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L20:L20">
-    <x:cfRule type="cellIs" dxfId="0" priority="925" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="926" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="927" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="928" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M20:M20">
-    <x:cfRule type="cellIs" dxfId="0" priority="929" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="930" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="931" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="932" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N20:N20">
-    <x:cfRule type="cellIs" dxfId="0" priority="933" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="934" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="935" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="936" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O20:O20">
-    <x:cfRule type="cellIs" dxfId="0" priority="937" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="938" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="939" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="940" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P20:P20">
-    <x:cfRule type="cellIs" dxfId="0" priority="941" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="942" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="943" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="944" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q20:Q20">
-    <x:cfRule type="cellIs" dxfId="0" priority="945" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="946" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="947" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="948" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R20:R20">
-    <x:cfRule type="cellIs" dxfId="0" priority="949" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="950" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="951" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="952" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E21:E21">
-    <x:cfRule type="cellIs" dxfId="0" priority="953" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="954" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="955" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="956" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F21:F21">
-    <x:cfRule type="cellIs" dxfId="0" priority="957" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="958" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="959" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="960" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G21:G21">
-    <x:cfRule type="cellIs" dxfId="0" priority="961" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="962" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="963" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="964" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H21:H21">
-    <x:cfRule type="cellIs" dxfId="0" priority="965" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="966" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="967" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="968" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I21:I21">
-    <x:cfRule type="cellIs" dxfId="0" priority="969" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="970" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="971" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="972" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J21:J21">
-    <x:cfRule type="cellIs" dxfId="0" priority="973" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="974" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="975" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="976" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K21:K21">
-    <x:cfRule type="cellIs" dxfId="0" priority="977" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="978" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="979" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="980" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L21:L21">
-    <x:cfRule type="cellIs" dxfId="0" priority="981" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="982" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="983" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="984" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M21:M21">
-    <x:cfRule type="cellIs" dxfId="0" priority="985" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="986" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="987" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="988" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N21:N21">
-    <x:cfRule type="cellIs" dxfId="0" priority="989" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="990" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="991" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="992" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O21:O21">
-    <x:cfRule type="cellIs" dxfId="0" priority="993" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="994" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="995" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="996" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P21:P21">
-    <x:cfRule type="cellIs" dxfId="0" priority="997" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="998" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="999" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1000" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q21:Q21">
-    <x:cfRule type="cellIs" dxfId="0" priority="1001" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1002" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1003" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1004" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R21:R21">
-    <x:cfRule type="cellIs" dxfId="0" priority="1005" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1006" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1007" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1008" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E22:E22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1009" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1010" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1011" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1012" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F22:F22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1013" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1014" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1015" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1016" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G22:G22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1017" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1018" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1019" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1020" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H22:H22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1021" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1022" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1023" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1024" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I22:I22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1025" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1026" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1027" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1028" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J22:J22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1029" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1030" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1031" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1032" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K22:K22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1033" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1034" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1035" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1036" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L22:L22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1037" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1038" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1039" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1040" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M22:M22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1041" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1042" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1043" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1044" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N22:N22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1045" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1046" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1047" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1048" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O22:O22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1049" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1050" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1051" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1052" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P22:P22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1053" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1054" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1055" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1056" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q22:Q22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1057" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1058" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1059" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1060" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R22:R22">
-    <x:cfRule type="cellIs" dxfId="0" priority="1061" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1062" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1063" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1064" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E23:E23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1065" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1066" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1067" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1068" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F23:F23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1069" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1070" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1071" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1072" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G23:G23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1073" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1074" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1075" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1076" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H23:H23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1077" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1078" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1079" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1080" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I23:I23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1081" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1082" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1083" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1084" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J23:J23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1085" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1086" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1087" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1088" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K23:K23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1089" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1090" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1091" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1092" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L23:L23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1093" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1094" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1095" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1096" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M23:M23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1097" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1098" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1099" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1100" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N23:N23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1101" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1102" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1103" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1104" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O23:O23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1105" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1106" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1107" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1108" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P23:P23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1109" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1110" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1111" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1112" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q23:Q23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1113" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1114" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1115" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1116" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R23:R23">
-    <x:cfRule type="cellIs" dxfId="0" priority="1117" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1118" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1119" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1120" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E24:E24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1121" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1122" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1123" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1124" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="F24:F24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1125" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1126" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1127" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1128" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="G24:G24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1129" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1130" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1131" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1132" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H24:H24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1133" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1134" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1135" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1136" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="I24:I24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1137" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1138" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1139" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1140" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J24:J24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1141" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1142" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1143" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1144" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="K24:K24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1145" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1146" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1147" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1148" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="L24:L24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1149" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1150" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1151" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1152" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="M24:M24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1153" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1154" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1155" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1156" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="N24:N24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1157" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1158" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1159" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1160" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="O24:O24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1161" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1162" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1163" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1164" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="P24:P24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1165" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1166" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1167" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1168" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="Q24:Q24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1169" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1170" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1171" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1172" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="R24:R24">
-    <x:cfRule type="cellIs" dxfId="0" priority="1173" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1174" operator="between">
-      <x:formula>0</x:formula>
-      <x:formula>$C$1</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="0" priority="1175" operator="equal">
-      <x:formula>0</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="1176" operator="between">
       <x:formula>0</x:formula>
       <x:formula>$C$1</x:formula>
     </x:cfRule>
@@ -6321,23 +3684,17 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C34" sqref="C34"/>
+      <x:selection activeCell="C25" sqref="C25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
-    <x:col min="2" max="2" width="17.350625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="13.100625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="5" width="12.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="12.140625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="12.350625" style="0" customWidth="1"/>
-    <x:col min="10" max="12" width="10.010625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="11.290625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="10.010625" style="0" customWidth="1"/>
-    <x:col min="15" max="16" width="11.290625" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="10.010625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.270625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="15.700625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="6" width="13.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="15" width="10.980625" style="0" customWidth="1"/>
+    <x:col min="16" max="17" width="12.270625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -6346,399 +3703,399 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1" s="16">
-        <x:v>44557</x:v>
+        <x:v>44559</x:v>
       </x:c>
       <x:c r="E1" s="16">
-        <x:v>44558</x:v>
+        <x:v>44560</x:v>
       </x:c>
       <x:c r="F1" s="16">
-        <x:v>44559</x:v>
+        <x:v>44561</x:v>
       </x:c>
       <x:c r="G1" s="16">
-        <x:v>44560</x:v>
+        <x:v>44562</x:v>
       </x:c>
       <x:c r="H1" s="16">
-        <x:v>44561</x:v>
+        <x:v>44563</x:v>
       </x:c>
       <x:c r="I1" s="16">
-        <x:v>44562</x:v>
+        <x:v>44564</x:v>
       </x:c>
       <x:c r="J1" s="16">
-        <x:v>44563</x:v>
+        <x:v>44565</x:v>
       </x:c>
       <x:c r="K1" s="16">
-        <x:v>44564</x:v>
+        <x:v>44566</x:v>
       </x:c>
       <x:c r="L1" s="16">
-        <x:v>44565</x:v>
+        <x:v>44567</x:v>
       </x:c>
       <x:c r="M1" s="16">
-        <x:v>44566</x:v>
+        <x:v>44568</x:v>
       </x:c>
       <x:c r="N1" s="16">
-        <x:v>44567</x:v>
+        <x:v>44569</x:v>
       </x:c>
       <x:c r="O1" s="16">
-        <x:v>44568</x:v>
+        <x:v>44570</x:v>
       </x:c>
       <x:c r="P1" s="16">
-        <x:v>44569</x:v>
+        <x:v>44571</x:v>
       </x:c>
       <x:c r="Q1" s="16">
-        <x:v>44570</x:v>
+        <x:v>44572</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="B2" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="21" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="22" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2" s="22" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G2" s="22" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="22" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I2" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J2" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K2" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L2" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M2" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N2" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O2" s="22" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P2" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q2" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="B3" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="21" t="s">
-        <x:v>35</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="22" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E3" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="22" t="s">
-        <x:v>38</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H3" s="22" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="22" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J3" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K3" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L3" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M3" s="22" t="s">
-        <x:v>41</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N3" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O3" s="22" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P3" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q3" s="22" t="s">
-        <x:v>44</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36" customFormat="1" ht="15" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="21" t="s">
-        <x:v>45</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="22" t="s">
-        <x:v>47</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="22" t="s">
-        <x:v>49</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H4" s="22" t="s">
-        <x:v>50</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I4" s="22" t="s">
-        <x:v>51</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J4" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K4" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L4" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M4" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N4" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O4" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P4" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q4" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36" customFormat="1" ht="15" customHeight="1">
       <x:c r="B5" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="21" t="s">
-        <x:v>54</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G5" s="22" t="s">
-        <x:v>54</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J5" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K5" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N5" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q5" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36" customFormat="1" ht="15" customHeight="1">
       <x:c r="B6" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="21" t="s">
-        <x:v>55</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="22" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J6" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K6" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N6" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O6" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q6" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36" customFormat="1" ht="15" customHeight="1">
       <x:c r="B7" s="17" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="21" t="s">
-        <x:v>58</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I7" s="22" t="s">
-        <x:v>59</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J7" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K7" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M7" s="22" t="s">
-        <x:v>60</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N7" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P7" s="22" t="s">
-        <x:v>61</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q7" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36" customFormat="1" ht="15" customHeight="1">
       <x:c r="B8" s="17" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="21" t="s">
-        <x:v>62</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I8" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K8" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M8" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N8" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q8" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36" customFormat="1" ht="15" customHeight="1">
@@ -6746,49 +4103,49 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J9" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K9" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N9" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q9" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36" customFormat="1" ht="15" customHeight="1">
@@ -6796,49 +4153,49 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q10" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36" customFormat="1" ht="15" customHeight="1">
@@ -6846,49 +4203,49 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K11" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N11" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q11" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36" customFormat="1" ht="15" customHeight="1">
@@ -6896,49 +4253,49 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J12" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K12" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N12" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q12" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36" customFormat="1" ht="15" customHeight="1">
@@ -6946,502 +4303,52 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J13" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K13" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N13" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q13" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B14" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C14" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J14" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K14" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N14" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q14" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B15" s="17" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C15" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q15" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B16" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C16" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q16" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B17" s="17" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C17" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J17" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K17" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N17" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q17" s="22" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B18" s="17" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C18" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q18" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B19" s="17" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C19" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q19" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B20" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C20" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q20" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B21" s="17" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C21" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q21" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:36" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B22" s="17" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C22" s="21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q22" s="22" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:36" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="14" spans="1:36" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7459,13 +4366,13 @@
   <x:dimension ref="B1:E3"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="D32" sqref="D32"/>
+      <x:selection activeCell="D23" sqref="D23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="10.136406" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="0" style="0" hidden="1" customWidth="1"/>
-    <x:col min="2" max="2" width="17.350625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="20.270625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.425781" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.710938" style="0" customWidth="1"/>
     <x:col min="5" max="26" width="10.425781" style="0" customWidth="1"/>
@@ -7476,171 +4383,151 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D1" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1" s="16">
-        <x:v>44557</x:v>
+        <x:v>44559</x:v>
       </x:c>
       <x:c r="F1" s="16">
-        <x:v>44558</x:v>
+        <x:v>44560</x:v>
       </x:c>
       <x:c r="G1" s="16">
-        <x:v>44559</x:v>
+        <x:v>44561</x:v>
       </x:c>
       <x:c r="H1" s="16">
-        <x:v>44560</x:v>
+        <x:v>44562</x:v>
       </x:c>
       <x:c r="I1" s="16">
-        <x:v>44561</x:v>
+        <x:v>44563</x:v>
       </x:c>
       <x:c r="J1" s="16">
-        <x:v>44562</x:v>
+        <x:v>44564</x:v>
       </x:c>
       <x:c r="K1" s="16">
-        <x:v>44563</x:v>
+        <x:v>44565</x:v>
       </x:c>
       <x:c r="L1" s="16">
-        <x:v>44564</x:v>
+        <x:v>44566</x:v>
       </x:c>
       <x:c r="M1" s="16">
-        <x:v>44565</x:v>
+        <x:v>44567</x:v>
       </x:c>
       <x:c r="N1" s="16">
-        <x:v>44566</x:v>
+        <x:v>44568</x:v>
       </x:c>
       <x:c r="O1" s="16">
-        <x:v>44567</x:v>
+        <x:v>44569</x:v>
       </x:c>
       <x:c r="P1" s="16">
-        <x:v>44568</x:v>
+        <x:v>44570</x:v>
       </x:c>
       <x:c r="Q1" s="16">
-        <x:v>44569</x:v>
+        <x:v>44571</x:v>
       </x:c>
       <x:c r="R1" s="16">
-        <x:v>44570</x:v>
+        <x:v>44572</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="B2" s="17" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="18" t="n">
-        <x:v>19</x:v>
+        <x:v>13.3846153846154</x:v>
       </x:c>
       <x:c r="D2" s="18" t="n">
-        <x:v>1948</x:v>
+        <x:v>3255</x:v>
       </x:c>
       <x:c r="E2" s="19" t="n">
-        <x:v>14</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s"/>
       <x:c r="G2" s="19" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H2" s="19" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="H2" s="19" t="n">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="I2" s="19" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="J2" s="19" t="n">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K2" s="19" t="n">
-        <x:v>34</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L2" s="19" t="n">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M2" s="19" t="n">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N2" s="19" t="n">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O2" s="19" t="n">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P2" s="19" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q2" s="19" t="n">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="Q2" s="19" t="s"/>
-      <x:c r="R2" s="19" t="s"/>
+      <x:c r="R2" s="19" t="n">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="B3" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="18" t="n">
-        <x:v>13.3846153846154</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="18" t="n">
-        <x:v>3231</x:v>
-      </x:c>
-      <x:c r="E3" s="19" t="n">
-        <x:v>21</x:v>
-      </x:c>
+        <x:v>2402</x:v>
+      </x:c>
+      <x:c r="E3" s="19" t="s"/>
       <x:c r="F3" s="19" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G3" s="19" t="n">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="19" t="s"/>
       <x:c r="H3" s="19" t="s"/>
-      <x:c r="I3" s="19" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J3" s="19" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K3" s="19" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L3" s="19" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M3" s="19" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="N3" s="19" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O3" s="19" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="P3" s="19" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="Q3" s="19" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="R3" s="19" t="n">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="I3" s="19" t="s"/>
+      <x:c r="J3" s="19" t="s"/>
+      <x:c r="K3" s="19" t="s"/>
+      <x:c r="L3" s="19" t="s"/>
+      <x:c r="M3" s="19" t="s"/>
+      <x:c r="N3" s="19" t="s"/>
+      <x:c r="O3" s="19" t="s"/>
+      <x:c r="P3" s="19" t="s"/>
+      <x:c r="Q3" s="19" t="s"/>
+      <x:c r="R3" s="19" t="s"/>
     </x:row>
     <x:row r="4" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="18" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="18" t="n">
-        <x:v>2402</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s"/>
       <x:c r="F4" s="19" t="s"/>
       <x:c r="G4" s="19" t="s"/>
-      <x:c r="H4" s="19" t="n">
-        <x:v>12</x:v>
-      </x:c>
+      <x:c r="H4" s="19" t="s"/>
       <x:c r="I4" s="19" t="s"/>
       <x:c r="J4" s="19" t="s"/>
-      <x:c r="K4" s="19" t="s"/>
+      <x:c r="K4" s="19" t="n">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="L4" s="19" t="s"/>
       <x:c r="M4" s="19" t="s"/>
       <x:c r="N4" s="19" t="s"/>
@@ -7651,67 +4538,77 @@
     </x:row>
     <x:row r="5" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B5" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="18" t="n">
-        <x:v>10.625</x:v>
+        <x:v>7.88888888888889</x:v>
       </x:c>
       <x:c r="D5" s="18" t="n">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="E5" s="19" t="s"/>
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E5" s="19" t="n">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F5" s="19" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="19" t="n">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H5" s="19" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I5" s="19" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J5" s="19" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K5" s="19" t="s"/>
+      <x:c r="I5" s="19" t="s"/>
+      <x:c r="J5" s="19" t="s"/>
+      <x:c r="K5" s="19" t="n">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="L5" s="19" t="s"/>
       <x:c r="M5" s="19" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N5" s="19" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O5" s="19" t="s"/>
+      <x:c r="P5" s="19" t="s"/>
+      <x:c r="Q5" s="19" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="N5" s="19" t="s"/>
-      <x:c r="O5" s="19" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P5" s="19" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q5" s="19" t="s"/>
-      <x:c r="R5" s="19" t="s"/>
+      <x:c r="R5" s="19" t="n">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B6" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="18" t="n">
-        <x:v>9</x:v>
+        <x:v>6.8</x:v>
       </x:c>
       <x:c r="D6" s="18" t="n">
-        <x:v>1412</x:v>
+        <x:v>1861</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s"/>
       <x:c r="F6" s="19" t="s"/>
       <x:c r="G6" s="19" t="s"/>
-      <x:c r="H6" s="19" t="s"/>
+      <x:c r="H6" s="19" t="n">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="I6" s="19" t="s"/>
-      <x:c r="J6" s="19" t="s"/>
-      <x:c r="K6" s="19" t="s"/>
-      <x:c r="L6" s="19" t="s"/>
-      <x:c r="M6" s="19" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N6" s="19" t="s"/>
+      <x:c r="J6" s="19" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K6" s="19" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L6" s="19" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M6" s="19" t="s"/>
+      <x:c r="N6" s="19" t="n">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="O6" s="19" t="s"/>
       <x:c r="P6" s="19" t="s"/>
       <x:c r="Q6" s="19" t="s"/>
@@ -7719,141 +4616,131 @@
     </x:row>
     <x:row r="7" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B7" s="17" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="18" t="n">
-        <x:v>6.8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="18" t="n">
-        <x:v>1861</x:v>
+        <x:v>1717</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s"/>
       <x:c r="F7" s="19" t="s"/>
       <x:c r="G7" s="19" t="s"/>
-      <x:c r="H7" s="19" t="s"/>
-      <x:c r="I7" s="19" t="s"/>
+      <x:c r="H7" s="19" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I7" s="19" t="n">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="J7" s="19" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s"/>
-      <x:c r="L7" s="19" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M7" s="19" t="n">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="L7" s="19" t="s"/>
+      <x:c r="M7" s="19" t="s"/>
       <x:c r="N7" s="19" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s"/>
-      <x:c r="P7" s="19" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="P7" s="19" t="s"/>
       <x:c r="Q7" s="19" t="s"/>
       <x:c r="R7" s="19" t="s"/>
     </x:row>
     <x:row r="8" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B8" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="18" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="18" t="n">
-        <x:v>1717</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s"/>
       <x:c r="F8" s="19" t="s"/>
       <x:c r="G8" s="19" t="s"/>
       <x:c r="H8" s="19" t="s"/>
-      <x:c r="I8" s="19" t="s"/>
-      <x:c r="J8" s="19" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K8" s="19" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L8" s="19" t="n">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="I8" s="19" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J8" s="19" t="s"/>
+      <x:c r="K8" s="19" t="s"/>
+      <x:c r="L8" s="19" t="s"/>
       <x:c r="M8" s="19" t="s"/>
       <x:c r="N8" s="19" t="s"/>
       <x:c r="O8" s="19" t="s"/>
-      <x:c r="P8" s="19" t="n">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="P8" s="19" t="s"/>
       <x:c r="Q8" s="19" t="s"/>
       <x:c r="R8" s="19" t="s"/>
     </x:row>
     <x:row r="9" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B9" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C9" s="18" t="n">
-        <x:v>2</x:v>
+        <x:v>1.75</x:v>
       </x:c>
       <x:c r="D9" s="18" t="n">
-        <x:v>162</x:v>
+        <x:v>2238</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s"/>
       <x:c r="F9" s="19" t="s"/>
       <x:c r="G9" s="19" t="s"/>
-      <x:c r="H9" s="19" t="s"/>
+      <x:c r="H9" s="19" t="n">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="I9" s="19" t="s"/>
       <x:c r="J9" s="19" t="s"/>
-      <x:c r="K9" s="19" t="n">
+      <x:c r="K9" s="19" t="s"/>
+      <x:c r="L9" s="19" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M9" s="19" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="L9" s="19" t="s"/>
-      <x:c r="M9" s="19" t="s"/>
       <x:c r="N9" s="19" t="s"/>
-      <x:c r="O9" s="19" t="s"/>
+      <x:c r="O9" s="19" t="n">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="P9" s="19" t="s"/>
       <x:c r="Q9" s="19" t="s"/>
       <x:c r="R9" s="19" t="s"/>
     </x:row>
     <x:row r="10" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B10" s="17" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="18" t="n">
-        <x:v>1.75</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="18" t="n">
-        <x:v>2238</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s"/>
       <x:c r="F10" s="19" t="s"/>
       <x:c r="G10" s="19" t="s"/>
       <x:c r="H10" s="19" t="s"/>
       <x:c r="I10" s="19" t="s"/>
-      <x:c r="J10" s="19" t="n">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="J10" s="19" t="s"/>
       <x:c r="K10" s="19" t="s"/>
       <x:c r="L10" s="19" t="s"/>
       <x:c r="M10" s="19" t="s"/>
-      <x:c r="N10" s="19" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O10" s="19" t="n">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="N10" s="19" t="s"/>
+      <x:c r="O10" s="19" t="s"/>
       <x:c r="P10" s="19" t="s"/>
-      <x:c r="Q10" s="19" t="n">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="Q10" s="19" t="s"/>
       <x:c r="R10" s="19" t="s"/>
     </x:row>
     <x:row r="11" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B11" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="18" t="n">
-        <x:v>414</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s"/>
       <x:c r="F11" s="19" t="s"/>
@@ -7872,13 +4759,13 @@
     </x:row>
     <x:row r="12" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B12" s="17" t="s">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D12" s="18" t="n">
-        <x:v>165</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s"/>
       <x:c r="F12" s="19" t="s"/>
@@ -7897,13 +4784,13 @@
     </x:row>
     <x:row r="13" spans="1:39" customFormat="1" ht="15" customHeight="1">
       <x:c r="B13" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C13" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D13" s="18" t="n">
-        <x:v>584</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s"/>
       <x:c r="F13" s="19" t="s"/>
@@ -7920,232 +4807,7 @@
       <x:c r="Q13" s="19" t="s"/>
       <x:c r="R13" s="19" t="s"/>
     </x:row>
-    <x:row r="14" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B14" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C14" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D14" s="18" t="n">
-        <x:v>515</x:v>
-      </x:c>
-      <x:c r="E14" s="19" t="s"/>
-      <x:c r="F14" s="19" t="s"/>
-      <x:c r="G14" s="19" t="s"/>
-      <x:c r="H14" s="19" t="s"/>
-      <x:c r="I14" s="19" t="s"/>
-      <x:c r="J14" s="19" t="s"/>
-      <x:c r="K14" s="19" t="s"/>
-      <x:c r="L14" s="19" t="s"/>
-      <x:c r="M14" s="19" t="s"/>
-      <x:c r="N14" s="19" t="s"/>
-      <x:c r="O14" s="19" t="s"/>
-      <x:c r="P14" s="19" t="s"/>
-      <x:c r="Q14" s="19" t="s"/>
-      <x:c r="R14" s="19" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B15" s="17" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C15" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D15" s="18" t="n">
-        <x:v>517</x:v>
-      </x:c>
-      <x:c r="E15" s="19" t="s"/>
-      <x:c r="F15" s="19" t="s"/>
-      <x:c r="G15" s="19" t="s"/>
-      <x:c r="H15" s="19" t="s"/>
-      <x:c r="I15" s="19" t="s"/>
-      <x:c r="J15" s="19" t="s"/>
-      <x:c r="K15" s="19" t="s"/>
-      <x:c r="L15" s="19" t="s"/>
-      <x:c r="M15" s="19" t="s"/>
-      <x:c r="N15" s="19" t="s"/>
-      <x:c r="O15" s="19" t="s"/>
-      <x:c r="P15" s="19" t="s"/>
-      <x:c r="Q15" s="19" t="s"/>
-      <x:c r="R15" s="19" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B16" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C16" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D16" s="18" t="n">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="E16" s="19" t="s"/>
-      <x:c r="F16" s="19" t="s"/>
-      <x:c r="G16" s="19" t="s"/>
-      <x:c r="H16" s="19" t="s"/>
-      <x:c r="I16" s="19" t="s"/>
-      <x:c r="J16" s="19" t="s"/>
-      <x:c r="K16" s="19" t="s"/>
-      <x:c r="L16" s="19" t="s"/>
-      <x:c r="M16" s="19" t="s"/>
-      <x:c r="N16" s="19" t="s"/>
-      <x:c r="O16" s="19" t="s"/>
-      <x:c r="P16" s="19" t="s"/>
-      <x:c r="Q16" s="19" t="s"/>
-      <x:c r="R16" s="19" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B17" s="17" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C17" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D17" s="18" t="n">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E17" s="19" t="s"/>
-      <x:c r="F17" s="19" t="s"/>
-      <x:c r="G17" s="19" t="s"/>
-      <x:c r="H17" s="19" t="s"/>
-      <x:c r="I17" s="19" t="s"/>
-      <x:c r="J17" s="19" t="s"/>
-      <x:c r="K17" s="19" t="s"/>
-      <x:c r="L17" s="19" t="s"/>
-      <x:c r="M17" s="19" t="s"/>
-      <x:c r="N17" s="19" t="s"/>
-      <x:c r="O17" s="19" t="s"/>
-      <x:c r="P17" s="19" t="s"/>
-      <x:c r="Q17" s="19" t="s"/>
-      <x:c r="R17" s="19" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B18" s="17" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C18" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D18" s="18" t="n">
-        <x:v>2743</x:v>
-      </x:c>
-      <x:c r="E18" s="19" t="s"/>
-      <x:c r="F18" s="19" t="s"/>
-      <x:c r="G18" s="19" t="s"/>
-      <x:c r="H18" s="19" t="s"/>
-      <x:c r="I18" s="19" t="s"/>
-      <x:c r="J18" s="19" t="s"/>
-      <x:c r="K18" s="19" t="s"/>
-      <x:c r="L18" s="19" t="s"/>
-      <x:c r="M18" s="19" t="s"/>
-      <x:c r="N18" s="19" t="s"/>
-      <x:c r="O18" s="19" t="s"/>
-      <x:c r="P18" s="19" t="s"/>
-      <x:c r="Q18" s="19" t="s"/>
-      <x:c r="R18" s="19" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B19" s="17" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C19" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D19" s="18" t="n">
-        <x:v>2162</x:v>
-      </x:c>
-      <x:c r="E19" s="19" t="s"/>
-      <x:c r="F19" s="19" t="s"/>
-      <x:c r="G19" s="19" t="s"/>
-      <x:c r="H19" s="19" t="s"/>
-      <x:c r="I19" s="19" t="s"/>
-      <x:c r="J19" s="19" t="s"/>
-      <x:c r="K19" s="19" t="s"/>
-      <x:c r="L19" s="19" t="s"/>
-      <x:c r="M19" s="19" t="s"/>
-      <x:c r="N19" s="19" t="s"/>
-      <x:c r="O19" s="19" t="s"/>
-      <x:c r="P19" s="19" t="s"/>
-      <x:c r="Q19" s="19" t="s"/>
-      <x:c r="R19" s="19" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B20" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C20" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D20" s="18" t="n">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E20" s="19" t="s"/>
-      <x:c r="F20" s="19" t="s"/>
-      <x:c r="G20" s="19" t="s"/>
-      <x:c r="H20" s="19" t="s"/>
-      <x:c r="I20" s="19" t="s"/>
-      <x:c r="J20" s="19" t="s"/>
-      <x:c r="K20" s="19" t="s"/>
-      <x:c r="L20" s="19" t="s"/>
-      <x:c r="M20" s="19" t="s"/>
-      <x:c r="N20" s="19" t="s"/>
-      <x:c r="O20" s="19" t="s"/>
-      <x:c r="P20" s="19" t="s"/>
-      <x:c r="Q20" s="19" t="s"/>
-      <x:c r="R20" s="19" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B21" s="17" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C21" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D21" s="18" t="n">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="E21" s="19" t="s"/>
-      <x:c r="F21" s="19" t="s"/>
-      <x:c r="G21" s="19" t="s"/>
-      <x:c r="H21" s="19" t="s"/>
-      <x:c r="I21" s="19" t="s"/>
-      <x:c r="J21" s="19" t="s"/>
-      <x:c r="K21" s="19" t="s"/>
-      <x:c r="L21" s="19" t="s"/>
-      <x:c r="M21" s="19" t="s"/>
-      <x:c r="N21" s="19" t="s"/>
-      <x:c r="O21" s="19" t="s"/>
-      <x:c r="P21" s="19" t="s"/>
-      <x:c r="Q21" s="19" t="s"/>
-      <x:c r="R21" s="19" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:39" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B22" s="17" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C22" s="18" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D22" s="18" t="n">
-        <x:v>1390</x:v>
-      </x:c>
-      <x:c r="E22" s="19" t="s"/>
-      <x:c r="F22" s="19" t="s"/>
-      <x:c r="G22" s="19" t="s"/>
-      <x:c r="H22" s="19" t="s"/>
-      <x:c r="I22" s="19" t="s"/>
-      <x:c r="J22" s="19" t="s"/>
-      <x:c r="K22" s="19" t="s"/>
-      <x:c r="L22" s="19" t="s"/>
-      <x:c r="M22" s="19" t="s"/>
-      <x:c r="N22" s="19" t="s"/>
-      <x:c r="O22" s="19" t="s"/>
-      <x:c r="P22" s="19" t="s"/>
-      <x:c r="Q22" s="19" t="s"/>
-      <x:c r="R22" s="19" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:39" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="14" spans="1:39" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
